--- a/data/02-Processed/PMPCombinedFcastDetail/2022.03 - PMP Combined Forecast With Detail.xlsx
+++ b/data/02-Processed/PMPCombinedFcastDetail/2022.03 - PMP Combined Forecast With Detail.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goconfluent.sharepoint.com/sites/UPADVISORS/EIM Analytics/04 - WebApps/NeedsAssessmentTool/data/02-Processed/PMPCombinedFcastDetail/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_4845612988C832515E21BD4A09837C1632F26758" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F64DAC7-CC9B-4934-B1B7-6637E34660F7}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_4845612988C832515E21BD4A09837C1632F26758" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67960B44-078C-4AAF-953A-DE60DCA5B4DC}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$504</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$505</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -862,7 +862,7 @@
   <dimension ref="A1:O505"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K202" sqref="K202:K298"/>
+      <selection activeCell="A205" sqref="A205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10319,7 +10319,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>1</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>4</v>
       </c>
@@ -10507,7 +10507,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>4</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>5</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>10</v>
       </c>
@@ -11071,7 +11071,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>11</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>12</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>13</v>
       </c>
@@ -11917,7 +11917,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>21</v>
       </c>
@@ -12011,7 +12011,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>22</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>24</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>28</v>
       </c>
@@ -13374,7 +13374,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>37</v>
       </c>
@@ -13656,7 +13656,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>40</v>
       </c>
@@ -14032,7 +14032,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>45</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>47</v>
       </c>
@@ -14314,7 +14314,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>48</v>
       </c>
@@ -14637,7 +14637,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>51</v>
       </c>
@@ -14825,7 +14825,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>54</v>
       </c>
@@ -24542,7 +24542,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="F505">
         <f>SUM(F202:F298)</f>
         <v>718810</v>
@@ -24557,20 +24557,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O504" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:O505" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Arizona"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="Physical Therapists"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="2028"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="13">
-      <filters>
-        <filter val="South"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -24579,21 +24574,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010042DAD6BC5FC9164E91F408CCD297BFFB" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1a109d7a5736997f3eeeaecbbb1853f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f5d01bc9-28ae-4456-8ca2-aef537193fc0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="832f38faa40e8bc86a9c7aa8ceef29b4" ns2:_="">
     <xsd:import namespace="f5d01bc9-28ae-4456-8ca2-aef537193fc0"/>
@@ -24771,24 +24751,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368A3925-F8BB-492F-B581-042571CD3094}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25FAC130-D787-4432-8AAF-CE6CE30A112A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B18273B7-BF8E-465D-94A2-2CD44BC6EAD3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24804,4 +24782,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25FAC130-D787-4432-8AAF-CE6CE30A112A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368A3925-F8BB-492F-B581-042571CD3094}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/02-Processed/PMPCombinedFcastDetail/2022.03 - PMP Combined Forecast With Detail.xlsx
+++ b/data/02-Processed/PMPCombinedFcastDetail/2022.03 - PMP Combined Forecast With Detail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goconfluent.sharepoint.com/sites/UPADVISORS/EIM Analytics/04 - WebApps/NeedsAssessmentTool/data/02-Processed/PMPCombinedFcastDetail/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_4845612988C832515E21BD4A09837C1632F26758" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67960B44-078C-4AAF-953A-DE60DCA5B4DC}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_4845612988C832515E21BD4A09837C1632F26758" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC12B9AF-F1C2-4998-9B87-91C1E4722A79}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10272,7 +10272,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>1</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>1</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2</v>
       </c>
@@ -10413,7 +10413,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>5</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>5</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>6</v>
       </c>
@@ -10695,7 +10695,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>6</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>8</v>
       </c>
@@ -10789,7 +10789,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>8</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>9</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>9</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>10</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>10</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>11</v>
       </c>
@@ -11071,7 +11071,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>11</v>
       </c>
@@ -11118,7 +11118,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>12</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>12</v>
       </c>
@@ -11212,7 +11212,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>13</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>13</v>
       </c>
@@ -11306,7 +11306,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>15</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>15</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>16</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>16</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>17</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>17</v>
       </c>
@@ -11588,7 +11588,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>18</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>18</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>19</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>19</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>20</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>20</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>21</v>
       </c>
@@ -11917,7 +11917,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>21</v>
       </c>
@@ -11964,7 +11964,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>22</v>
       </c>
@@ -12011,7 +12011,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>22</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>23</v>
       </c>
@@ -12105,7 +12105,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>24</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>24</v>
       </c>
@@ -12199,7 +12199,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>25</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>25</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>26</v>
       </c>
@@ -12340,7 +12340,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>26</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>27</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="247" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>27</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>28</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>28</v>
       </c>
@@ -12575,7 +12575,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>29</v>
       </c>
@@ -12622,7 +12622,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>29</v>
       </c>
@@ -12669,7 +12669,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>30</v>
       </c>
@@ -12716,7 +12716,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>30</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>31</v>
       </c>
@@ -12810,7 +12810,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>31</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>32</v>
       </c>
@@ -12904,7 +12904,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>32</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>33</v>
       </c>
@@ -12998,7 +12998,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>33</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>34</v>
       </c>
@@ -13092,7 +13092,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>34</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>35</v>
       </c>
@@ -13186,7 +13186,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>35</v>
       </c>
@@ -13233,7 +13233,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>36</v>
       </c>
@@ -13280,7 +13280,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>36</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>37</v>
       </c>
@@ -13374,7 +13374,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>37</v>
       </c>
@@ -13421,7 +13421,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="268" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>38</v>
       </c>
@@ -13468,7 +13468,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>38</v>
       </c>
@@ -13515,7 +13515,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="270" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>39</v>
       </c>
@@ -13562,7 +13562,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="271" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>39</v>
       </c>
@@ -13609,7 +13609,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="272" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>40</v>
       </c>
@@ -13656,7 +13656,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>40</v>
       </c>
@@ -13703,7 +13703,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>41</v>
       </c>
@@ -13750,7 +13750,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>41</v>
       </c>
@@ -13797,7 +13797,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>42</v>
       </c>
@@ -13844,7 +13844,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>42</v>
       </c>
@@ -13891,7 +13891,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>44</v>
       </c>
@@ -13938,7 +13938,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>44</v>
       </c>
@@ -13985,7 +13985,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>45</v>
       </c>
@@ -14032,7 +14032,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>45</v>
       </c>
@@ -14079,7 +14079,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>46</v>
       </c>
@@ -14126,7 +14126,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>46</v>
       </c>
@@ -14173,7 +14173,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>47</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>47</v>
       </c>
@@ -14267,7 +14267,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>48</v>
       </c>
@@ -14314,7 +14314,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>48</v>
       </c>
@@ -14361,7 +14361,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>0</v>
       </c>
@@ -14402,7 +14402,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>49</v>
       </c>
@@ -14449,7 +14449,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>49</v>
       </c>
@@ -14496,7 +14496,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>50</v>
       </c>
@@ -14543,7 +14543,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>50</v>
       </c>
@@ -14590,7 +14590,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>51</v>
       </c>
@@ -14637,7 +14637,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>51</v>
       </c>
@@ -14684,7 +14684,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>53</v>
       </c>
@@ -14731,7 +14731,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>53</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>54</v>
       </c>
@@ -14825,7 +14825,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>54</v>
       </c>
@@ -14872,7 +14872,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>55</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>55</v>
       </c>
@@ -14966,7 +14966,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>56</v>
       </c>
@@ -15013,7 +15013,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>56</v>
       </c>
@@ -24558,11 +24558,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O505" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Arizona"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="Physical Therapists"/>
@@ -24752,18 +24747,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24785,18 +24780,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25FAC130-D787-4432-8AAF-CE6CE30A112A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368A3925-F8BB-492F-B581-042571CD3094}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25FAC130-D787-4432-8AAF-CE6CE30A112A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>